--- a/src/main/java/Utilities/testdata.xlsx
+++ b/src/main/java/Utilities/testdata.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\src\main\java\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E6600C-C26B-42B9-A77E-9948427E0083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD4B568-74D0-44B6-B138-05C0AC1A1477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="FlightSearchTest" sheetId="4" r:id="rId2"/>
+    <sheet name="ForgotPassword" sheetId="5" r:id="rId2"/>
+    <sheet name="SendEmailLink" sheetId="6" r:id="rId3"/>
+    <sheet name="FlightSearchTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="25">
   <si>
     <t>Y</t>
   </si>
@@ -432,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,6 +550,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543BD673-E45D-4906-B9D4-C9F53092AEC1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{155474EA-1C10-4892-8FFC-24960461600D}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{AD886CD4-4014-46F3-AA0E-8AC587D1E2FF}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{7FB84BEA-41FC-440E-B865-276BA856C774}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2170D83A-3131-49E4-AE7C-9271F19AACAC}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A34CC12D-9882-44F7-B40E-F4CE30A12808}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{97B5FCB9-199D-4EB0-9127-6952A2BB8B5D}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{308EDDDC-EEA1-48DF-A725-D1F1501BE552}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
